--- a/medicine/Bioéthique/Histoire_des_représentations_du_fœtus/Histoire_des_représentations_du_fœtus.xlsx
+++ b/medicine/Bioéthique/Histoire_des_représentations_du_fœtus/Histoire_des_représentations_du_fœtus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_des_repr%C3%A9sentations_du_f%C5%93tus</t>
+          <t>Histoire_des_représentations_du_fœtus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La représentation du fœtus jusque-là négligée n’est pas moins une forme d’art comme toute autre figure humaine. Le fœtus, lui aussi, possède son histoire et son développement qui lui a permis de le figurer tel qu’il est aujourd’hui. Bien que complexe, cette existence correspond à un être qui mérite tout autant d’attention dans sa représentation que tout autre être humain. Il est également le témoin d’une évolution de la connaissance mais aussi de la pratique médicale obstétrique, qui en ce temps correspond à un fœtus qui évolua au fil des siècles, méritant sa place dans la matière historique de l’art.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_des_repr%C3%A9sentations_du_f%C5%93tus</t>
+          <t>Histoire_des_représentations_du_fœtus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>La question éthique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette thématique fœtale est lourde de sens puisqu’elle porte aussi le poids de la réalisation des découvertes et des études qui ont été réalisées par une médecine “macabre” nécessaire. La dissection de nombreux fœtus, et de femmes en cours de grossesse ont été utilisées au nom de la médecine, cela probablement sans consentement. Leur présence, par des squelettes ou des fœtus complets conservés dans des bocaux de formol exposés dans des musées, porte à la réflexion sur la pertinence, mais aussi sur l’humanité qui entoure cela tant dans le rapport au statut du corps humain que de son exposition.
 Néanmoins, il ne faut pas voir ce dilemme comme manichéen puisque ces “objets” exposés restent issus d’un individu, d’un être qui a vécu et, dans le cas des fœtus, d’un manquement de rigueur concernant l’avis des géniteurs qui n’ont potentiellement pas eu leur mot à dire quant à l'étude et à l’exposition de leur enfant dans un cabinet de curiosités.
 Cette thématique très actuelle de l’humanité de ces collections et de leur conservation, voient nombreuses polémiques au sein de certains établissements : 
 La découverte des corps de trois-cent-cinquante-et-un fœtus à l'hôpital Saint-Vincent-de-Paul de Paris en 2005. Ils étaient conservés dans des conditions inacceptables à l'intérieur d’une chambre mortuaire.
 Le Musée Dupuytren qui a vu fermer ses portes au grand public pour une réflexion sur un réaménagement des collections.
-Par ailleurs, en dépit des avancées technologiques d'imagerie médicale du fœtus, les représentations historiques de fœtus comme enfant à naître hautement indépendant de la mère continuent à influencer les opinions dans des sujets controversés comme l'avortement. Au XXIe siècle, l'image du fœtus (avec absence totale de la mère qui le porte) est utilisée comme icône dans les campagnes contre l'avortement[1]. 
+Par ailleurs, en dépit des avancées technologiques d'imagerie médicale du fœtus, les représentations historiques de fœtus comme enfant à naître hautement indépendant de la mère continuent à influencer les opinions dans des sujets controversés comme l'avortement. Au XXIe siècle, l'image du fœtus (avec absence totale de la mère qui le porte) est utilisée comme icône dans les campagnes contre l'avortement. 
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histoire_des_repr%C3%A9sentations_du_f%C5%93tus</t>
+          <t>Histoire_des_représentations_du_fœtus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Les représentations antiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La discipline obstétrique est longtemps restée une affaire de femme et plus précisément du maieutikê (terme se définissant comme « art des accouchements »). Dans leurs écrits, les auteurs antiques masculins narrent leurs théories génératives et le développement de cet être qui reste caché dans le ventre de sa mère pendant de long moins. Ainsi, de nombreux auteurs grecs tels que Empédocle, Aristote, Hippocrate ou encore Galien évoquent le sujet de la génération et de la croissance du fœtus dans leurs ouvrages. Ils distinguent le placenta du fœtus, et le fœtus d'abord informe qui devient fœtus formé[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La discipline obstétrique est longtemps restée une affaire de femme et plus précisément du maieutikê (terme se définissant comme « art des accouchements »). Dans leurs écrits, les auteurs antiques masculins narrent leurs théories génératives et le développement de cet être qui reste caché dans le ventre de sa mère pendant de long moins. Ainsi, de nombreux auteurs grecs tels que Empédocle, Aristote, Hippocrate ou encore Galien évoquent le sujet de la génération et de la croissance du fœtus dans leurs ouvrages. Ils distinguent le placenta du fœtus, et le fœtus d'abord informe qui devient fœtus formé.
 La majorité de ces femmes accoucheuses, ne le sont devenues que par la pratique même de leur accouchement, ayant déjà enfantées elles peuvent aider les nouvelles mères à accoucher. Elles ne possèdent aucune formation spécifique ou pas la moindre connaissance anatomique. Cependant, un groupe de consœurs, instruites et spécialisées dans l’exercice de cette pratique peuvent quant à elles réaliser des accouchements risqués ou même des avortements. Néanmoins, ces femmes instruites ne possédant donc pas la possibilité d’écrire leur savoir obstétrique, transmettent leurs connaissances à d’autres femmes par voie orale.
 </t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Histoire_des_repr%C3%A9sentations_du_f%C5%93tus</t>
+          <t>Histoire_des_représentations_du_fœtus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,21 +595,132 @@
           <t>Les représentations médiévales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Par l’ouvrage de Léon Meunier nous figurant l’histoire de la médecine, nous apprenons que durant une certaine temporalité, ce fut l’influence orientale et surtout arabe, dépositaires des sciences qui brille sur le continent européen et asiatique. En ce temps, Charlemagne lui-même possède des médecins de cour juifs nommés Farragus et Buhalyha Bengesta. Ainsi continuant dans cette tendance, vers le Xe Siècle se sont toujours les juifs qui sont les premiers médecins de l’Europe, de par leur connaissance dans les sciences arabes, n’existant pas encore de versions actualisées d’Hippocrate et Galien. Néanmoins par des ex-communions Chrétiennes, les juifs furent évincés, la population ne devant plus communiquer avec eux, menant à la suprématie des prêtres qui deviennent alors les seuls à posséder le savoir, expliquant de ce fait leur place dans le Moyen-âge de l’Europe occidentale, les médecins étaient alors des clercs voir des chanoines.
 Au Moyen-Age, la tradition obstétrique féminine se poursuit, les accoucheuses  n’étant concrètement que des femmes ayant accouché plus d’une fois, ne possédant pas plus de connaissances que d’expérience, sous cause d’un manquement d'enseignement anatomique. La discipline ne peut ainsi pas évoluer, de même que le fœtus qui reste caché dans les entrailles de sa mère, qui ne peut alors que l’imaginer et le sentir bouger en elle.
 En ce même temps la mortalité infantile atteint son apogée, cela étant amplifié par une valeur amoindrie de la vie et d’un manquement de considération de la douleur ressentie par la femme en accouchement.
-Le fœtus d’après Moschion
-L’une des plus vieilles représentations fœtales, date du IXe siècle et est figuré dans un traité nommé Gynaecia, rédigé par l’anatomiste et naturaliste Moschion, un homme provenant de Grèce ou d’Afrique du Nord, qui lui, date du Ve siècle. Ce traité manuscrit est post-mortem à son auteur d’origine, rendant difficile à savoir qui est le véritable auteur de cette illustration.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Histoire_des_représentations_du_fœtus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_des_repr%C3%A9sentations_du_f%C5%93tus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les représentations médiévales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le fœtus d’après Moschion</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’une des plus vieilles représentations fœtales, date du IXe siècle et est figuré dans un traité nommé Gynaecia, rédigé par l’anatomiste et naturaliste Moschion, un homme provenant de Grèce ou d’Afrique du Nord, qui lui, date du Ve siècle. Ce traité manuscrit est post-mortem à son auteur d’origine, rendant difficile à savoir qui est le véritable auteur de cette illustration.
 Cette figure, représente une matrice possédant des cornes avec en son sein des hommes miniatures flottant dans cette matrice corneuse, possédant diverses postures, tels des gymnastes effectuant des exercices et sollicitant les louanges du public après leur démonstration physique, cela nous montre alors une image bien éloignée de la réelle nature de la figure fœtale actuelle et nous illustre parfaitement les pensées et le savoir qui concerne la discipline obstétrique sur cette période. Le traité Gynaecia, est donc fondateur de la gynécologie médiévale et son illustration est fondatrice des figurations fœtales de ce temps.
-Le fœtus et les Chrétiens
-Pendant ce même temps, l’Eglise s’approprie peu à peu l'existence foetale, voyant figurer dans ses écrits sacrés un temps de la génération de l’enfant, divinisant la grossesse de la Vierge, qui devient par conséquent la figure maternelle par excellence, une sainte que toutes les femmes doivent prier pour le bon déroulement de leur grossesse. Nous voyons donc en ce temps que la figure foetale reste encore mal connue, ne se concentrant que sur l’exercice de l’accouchement, marginalisant volontairement la génération de l’enfant qui ne doit pas être découverte, ce qui remettrait alors en question les écrits bibliques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Histoire_des_représentations_du_fœtus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_des_repr%C3%A9sentations_du_f%C5%93tus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les représentations médiévales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le fœtus et les Chrétiens</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant ce même temps, l’Eglise s’approprie peu à peu l'existence foetale, voyant figurer dans ses écrits sacrés un temps de la génération de l’enfant, divinisant la grossesse de la Vierge, qui devient par conséquent la figure maternelle par excellence, une sainte que toutes les femmes doivent prier pour le bon déroulement de leur grossesse. Nous voyons donc en ce temps que la figure foetale reste encore mal connue, ne se concentrant que sur l’exercice de l’accouchement, marginalisant volontairement la génération de l’enfant qui ne doit pas être découverte, ce qui remettrait alors en question les écrits bibliques.
 Pour le monde chrétien, l’union sexuelle qui lie un homme et une femme est le mécanisme qui va fabriquer un fœtus, auquel le divin va insuffler la vie, ainsi c’est au rôle de Dieu de donner une âme à cet enfant. Cependant ce phénomène étant le résultat d’un rapport sexuel, la grossesse et tout ce qui la concerne n’est pas valorisé, voire tabou. Cet enfant, entaché de la faute originelle des premiers Hommes doit être baptisé au plus vite pour le laver de cette infamie et marquer son entrée dans le monde des croyants. En effet, la maternité reste entièrement liée à la faute commise par Ève, résultant en un enfantement dans la souffrance qui doit toucher toute femme pour les punir du péché originel.
-Le Christ en fœtus
-La religion, a donc longuement impacté les connaissances et les pratiques liées à ce domaine médical en imposant ses croyances et en empêchant l’émergence de nouvelles pensées ainsi, le fœtus se voit de nombreuses fois représentés par l’intermédiaire de Jésus qui, grandissant au sein de sa mère Marie, nous illustre une description des pensées de l’époque concernant ce petit être.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Histoire_des_représentations_du_fœtus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_des_repr%C3%A9sentations_du_f%C5%93tus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les représentations médiévales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le fœtus et les Chrétiens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Le Christ en fœtus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La religion, a donc longuement impacté les connaissances et les pratiques liées à ce domaine médical en imposant ses croyances et en empêchant l’émergence de nouvelles pensées ainsi, le fœtus se voit de nombreuses fois représentés par l’intermédiaire de Jésus qui, grandissant au sein de sa mère Marie, nous illustre une description des pensées de l’époque concernant ce petit être.
 La visitation
-La scène religieuse de la visitation consiste en la rencontre entre la Vierge et sa cousine Élisabeth, toutes deux enceintes respectivement de Jésus et de Jean le Baptiste. C’est pendant cette scène que Élisabeth va d'ailleurs se rendre compte et prendre conscience de sa grossesse, en effet elle va pour la première fois ressentir "tressaillir son enfant” [3]. Ces scènes sont monnaies courantes à cette époque, cependant les représentations de ces grossesses saintes, elles, varient selon l’auteur. Ce faisant, nous nous retrouvons avec des robes gonflées, des touchés de seins ou de ventre entre les femmes ou bien la transparence des fœtus qui sont illustrés en intra-utérin ou bien en extra-utérin (équivalant au fœtus mis sur le ventre ou la poitrine). Ces grossesses glorieuses qui sont alors représentées dès le Moyen-âge, restent assez inégales dans les moyens de figuration de grossesse, faisant de la présence foetale et de sa représentation une illustration assez rare, notamment sur notre territoire. En effet, pour ce genre d’images, il faut surtout se tourner vers les pays germaniques et nordiques du XVe siècle.
+La scène religieuse de la visitation consiste en la rencontre entre la Vierge et sa cousine Élisabeth, toutes deux enceintes respectivement de Jésus et de Jean le Baptiste. C’est pendant cette scène que Élisabeth va d'ailleurs se rendre compte et prendre conscience de sa grossesse, en effet elle va pour la première fois ressentir "tressaillir son enfant” . Ces scènes sont monnaies courantes à cette époque, cependant les représentations de ces grossesses saintes, elles, varient selon l’auteur. Ce faisant, nous nous retrouvons avec des robes gonflées, des touchés de seins ou de ventre entre les femmes ou bien la transparence des fœtus qui sont illustrés en intra-utérin ou bien en extra-utérin (équivalant au fœtus mis sur le ventre ou la poitrine). Ces grossesses glorieuses qui sont alors représentées dès le Moyen-âge, restent assez inégales dans les moyens de figuration de grossesse, faisant de la présence foetale et de sa représentation une illustration assez rare, notamment sur notre territoire. En effet, pour ce genre d’images, il faut surtout se tourner vers les pays germaniques et nordiques du XVe siècle.
 Dans ce visuel réalisé par un anonyme allemand, une huile sur toile séjournant dans le musée des Beaux-arts de Lyon, les deux femmes ont en leur ventre des petits fœtus entourés d’une mandorle de rayons dorés. Le texte biblique y est parfaitement illustré. Avec les moyens de l’époque ajoutant un effet pittoresque, on y voit en arrière-plan une montagne avec une ville et sur le bord droit, la maison du couple Zacharie et Elisabeth. Le fond de toile est constitué d’un ciel d’or, qui est directement en lien avec les auréoles entourant les deux femmes mais aussi en lien avec l’ange tenant la cape de Marie sur la gauche. Les deux protagonistes sont illustrés dans un geste affectueux, Marie tenant la main de sa cousine, fait joindre l’histoire de ces deux femmes qui se rejoignent dans leur vécu et leur rapport au divin.
 La différence d’âge des femmes se manifeste nettement dans la toile, Marie, symbole de virginité, a les cheveux lâchés tandis que  Élisabeth, en tant que vieille femme a sa tête couverte. Malgré la différence d’âge, ces deux femmes se trouvent en un point commun, leurs fécondités bénies de Dieu, se traduisant par la grossesse d’une femme vierge et d’une femme qui n’est plus en âge de concevoir. Cette scène religieuse qui est par ailleurs la première rencontre du Christ et du futur Saint Jean-Baptiste, dans le ventre maternel, est bien plus qu’une simple rencontre qui se déroule dans la joie mais une allégorie de l’humanité qui est sur un chemin fructueux dans l’accueil joyeux de ce projet divin.
 Dans ce deuxième visuel, réalisé également par un anonyme pendant le XVe siècle, on y voit les deux femmes accompagnées de leurs conjoints dans un espace montagneux orné d’églises. Ainsi sur la gauche figurent Élisabeth et Zacharie, et sur la droite Marie et Joseph. On remarque aussi une autre présence dans un coin de l’enluminure, en effet en haut de la composition, la main de Dieu sort du ciel bleu et doré. Dans cette œuvre un détail est assez marquant, Élisabeth semble du même âge que Marie, élément qui se voit d’autant plus véridique par sa tête qui n’est pas recouverte. De plus, les deux femmes ont des couleurs de vêtements bien distinctes, Marie porte son célèbre vêtement bleu qui symbolise sa pureté tandis que Elisabeth porte un vêtement rouge. Cette fois, les deux femmes portant toutes deux une auréole, ne se touchent pas, chacune regardant le ventre de l’autre où figurent leurs enfants. Dans cette représentation nous retrouvons donc également le Christ et Jean-Baptiste sous forme de fœtus, qui apparaissent en dehors du ventre, comme posés dessus. Le premier semblant porter une couronne et le second une auréole, sont représentés comme des enfants bien vivants et formés. Leurs postures sont codées, on y voit bien Jean-Baptiste agenouillé devant le Christ, ce dernier bénissant le futur prophète.
@@ -602,7 +729,7 @@
 Le fœtus-Christ
 Le fœtus-christ, illustré comme posé par-dessus le vêtement de la Vierge, sur le ventre maternel, est dans la plupart des cas, entouré par des rayons lumineux ou d’une mandorle. Ces représentations se sont répandues pendant le XVe siècle mais ne se sont pas cantonnées aux scènes de visitation puisque des sculptures illustrant ce type de fœtus-christ se sont très vite étendues dans les sanctuaires de Notre-Dame de l’Espérance, des Avents ou de l’Expectation.
 Parmi ces sculptures religieuses, on trouve divers moyens de figuration, l’une consiste en une illustration telle que dans les scènes de visitation, c'est-à-dire avec un Christ extra-utérin posé sur le ventre et entouré de rayons, tandis que l’autre moyen consiste en le placement du fœtus christ dans une sorte de niche creusée dans le ventre de la vierge. Ces rondes-bosses se voient beaucoup plus réalistes que le simple placement du Christ sur le ventre puisque ce dernier est amovible de l'œuvre. Dans certains cas, le ventre de la vierge est transparent, recouvert d’une vitre pour protéger l’enfant. Ce type de figuration est notamment effectué dans le monde hispanique et n’est d'ailleurs pas sans rappeler l’ancien thème de la Vierge voit figurer dans son intérieur le Père, le fils et le Saint-Esprit (réalisé dans du bois ou dans de l’ivoire).
-Dans les années 1520, on assiste à une disparition de ces scènes extra-utérines qui seront par la suite suivies d’une interdiction totale de la représentation de la Vierge dans sa grossesse. En effet, alors que ces représentations sont en plein essor, le XVe siècle voit apparaître la condamnation de ces pratiques par les plus grands théologiens, ce qui se voit concrétisé par le concile de Trente se déroulant pendant l’année 1563, en une interdiction de représentation[4]. C’est dans ce contexte que des ouvrages servant de guide pour les peintres de tableaux religieux vont émerger, tel est le cas de l’ouvrage de Jean Molanus, professeur de théologie à l'université de Louvain et théoricien d’imagerie sacrée fit publier en 1570 son De historia sanctarum imaginum et picturarum, pro vero earum usu contra abusus[5]. Son ouvrage va par ailleurs normaliser la peinture religieuse pendant plus de deux siècles après sa parution. Ce guide sur les pratiques de la peinture va condamner les scènes de nombreuses figures religieuses en lien avec la génération du Christ puisque pour la chrétienté, la Vierge a enfanté sans effort et sans douleur, témoignant ainsi de son rôle divin.
+Dans les années 1520, on assiste à une disparition de ces scènes extra-utérines qui seront par la suite suivies d’une interdiction totale de la représentation de la Vierge dans sa grossesse. En effet, alors que ces représentations sont en plein essor, le XVe siècle voit apparaître la condamnation de ces pratiques par les plus grands théologiens, ce qui se voit concrétisé par le concile de Trente se déroulant pendant l’année 1563, en une interdiction de représentation. C’est dans ce contexte que des ouvrages servant de guide pour les peintres de tableaux religieux vont émerger, tel est le cas de l’ouvrage de Jean Molanus, professeur de théologie à l'université de Louvain et théoricien d’imagerie sacrée fit publier en 1570 son De historia sanctarum imaginum et picturarum, pro vero earum usu contra abusus. Son ouvrage va par ailleurs normaliser la peinture religieuse pendant plus de deux siècles après sa parution. Ce guide sur les pratiques de la peinture va condamner les scènes de nombreuses figures religieuses en lien avec la génération du Christ puisque pour la chrétienté, la Vierge a enfanté sans effort et sans douleur, témoignant ainsi de son rôle divin.
 Les scènes de Nativité qui sont pourtant dominantes dans le monde byzantin, sont aussi interdites car selon lui, ces images de la Vierge alitée sont contraires au dogme de virginité qu’elle représente. De même, l’Annonciation est également condamnée puisque dans la plupart de ces illustrations, on y voit généralement un enfant, tel un homoncule qui descend vers la Vierge par des rayons lumineux. Cette scène serait donc en quelque sorte tabou pour le monde chrétien puisqu’elle serait synonyme  d’un rôle amoindri de Marie qui ne serait alors qu’un simple réceptacle duquel serait sorti le Christ déjà formé et sans gestation humaine.
 Dans ce contexte de réforme, les XVIIe et XVIIIe siècles seront témoins de ces vierges avec une gestation transparente qui vont être brûlées par des évêques à cause de leur indécence ou bien dans le cas des sculptures, remplacées par des ostensoirs sous forme de buste de Marie qui, remplaçant le Christ dans sa niche circulaire, va mettre en place une grande hostie consacrée. Ce mouvement de chasse à l’indécence va se dérouler dans la majorité des pays chrétiens, mis à part le monde hispanique où ces images de Virgen de la Esperanza vont être bénites par le clergé local qui est totalement en phase avec une piété familiale et une aspiration aux croyances des fidèles hispaniques, notamment des femmes enceintes qui ont besoin de trouver une image qui les rassure. Ces représentations de Marie avec un ventre transparent vont donc se perpétuer en un seul endroit et ce jusqu’au XVIIIe siècle.
 Par l’interdiction de représentation de la Vierge gestante, d’autre parties de la bible furent utilisées pour figurer ces enfants cachés, en effet, il est possible de trouver des illustrations de fœtus saints comme Jacob et Esaü, Saint Côme et Saint Damien, ou saint Protais et saint Gervais, etc 
